--- a/AllTables/All attack related dictionaries.xlsx
+++ b/AllTables/All attack related dictionaries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Pokemon Tabletop Project\All Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pokemon-Table-Top\Git Project\PokemonTableTop\AllTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>Frequency</t>
   </si>
@@ -340,6 +340,21 @@
   </si>
   <si>
     <t>Dice(xdy+z)</t>
+  </si>
+  <si>
+    <t>StagePenelty ATB (x)</t>
+  </si>
+  <si>
+    <t>ATB = Attribute // x=amount</t>
+  </si>
+  <si>
+    <t>StageBonus ATB (x)</t>
+  </si>
+  <si>
+    <t>SDEFStage</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -815,7 +830,7 @@
   <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,16 +1036,28 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
       <c r="M13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
       <c r="M14" t="s">
         <v>12</v>
       </c>
@@ -1082,6 +1109,24 @@
       <c r="C29" t="s">
         <v>84</v>
       </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1093,6 +1138,24 @@
       <c r="C30" t="s">
         <v>84</v>
       </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1116,7 +1179,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -1126,8 +1189,14 @@
       <c r="C33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -1137,8 +1206,14 @@
       <c r="C34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1148,8 +1223,14 @@
       <c r="C35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -1159,8 +1240,14 @@
       <c r="C36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -1170,8 +1257,14 @@
       <c r="C37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -1181,8 +1274,14 @@
       <c r="C38" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -1193,7 +1292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -1204,7 +1303,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +1314,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -1226,7 +1325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -1237,7 +1336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -1248,7 +1347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
@@ -1259,7 +1358,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
@@ -1270,7 +1369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -1281,7 +1380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
